--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1213122.942291565</v>
+        <v>1188477.710540279</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4888794.453803542</v>
+        <v>4888794.453803538</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663197</v>
+        <v>158.920983210274</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.09081815943047</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663197</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663197</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666384</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>41.31278354454231</v>
       </c>
       <c r="U3" t="n">
-        <v>170.7857196598883</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.00402729331169</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>38.11163636040617</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709392</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>192.9658722707887</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>78.1636065770829</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>312.6458728713225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>39.07242204049905</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2994675790488</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.75511695806322</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>105.026484284142</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>126.1414063487317</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>253.1593635733528</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6761715944833</v>
+        <v>11.6761715944833</v>
       </c>
       <c r="H8" t="n">
-        <v>302.3342338808924</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>70.66270691447906</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>126.3796986693934</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.2205572464783</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>175.8696960679376</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>116.8320710048475</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.49542143817384</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>32.71530508318229</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.20549727320322</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.64139247037</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.3436201790821</v>
+        <v>177.7152040405592</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8137252499236</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>62.27341860583299</v>
+        <v>81.44345541853158</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3642267354451</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.28665244236507</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>104.1486779823914</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.6667364159068</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>248.6774854464284</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.76470074482921</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>106.4735778903241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>81.77200357366353</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>184.147735321692</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>133.048900727921</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>106.4735778903236</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>75.9484855506643</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>201.6086852141652</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>136.3896895755407</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>20.95866062611014</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.92502798775065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>215.7030122770219</v>
+        <v>160.0317554412389</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8428862394535</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>20.95866062610972</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>67.57859506478962</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>83.13723023285792</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>137.5049127231574</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>143.8294614350711</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>72.94739929677965</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>38.93487362168387</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>93.3588207914797</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>81.46084344268498</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>212.1942497135188</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>200.8052136229451</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>221.7048515690715</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>133.4718779172112</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>188.2196394312111</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.9824281355619</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>63.88595241858363</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>104.6737263919361</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>326.4086157425627</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>114.0495374903437</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.0495374903437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>99.59895631930668</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>212.2140719095421</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
         <v>89.59687541851116</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>81.46084344268498</v>
       </c>
       <c r="V40" t="n">
-        <v>61.36917500886953</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>284.8749944270522</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>322.235357110786</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.36917500886968</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>115.013833414418</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.732180395781961</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>205.6626697667473</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>80.13525272600612</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.2420264262245</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097399</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097399</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062748</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897901</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058927</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644749</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123821</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985577</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020258</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262245</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262245</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262245</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262245</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262245</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262245</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262245</v>
+        <v>322.4426321268593</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296056</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296056</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296056</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296056</v>
+        <v>475.9702682325468</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296056</v>
+        <v>329.4357102594317</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296056</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296056</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546597</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017055</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652789</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652789</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652789</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="U3" t="n">
-        <v>577.5915207259977</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="V3" t="n">
-        <v>577.5915207259977</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="W3" t="n">
-        <v>388.1717357095132</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="X3" t="n">
-        <v>388.1717357095132</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="Y3" t="n">
-        <v>198.7519506930286</v>
+        <v>635.2077232380022</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404151</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404151</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404151</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404151</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404151</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404151</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404151</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404151</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404151</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230169</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170704</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396313</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910382</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910382</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910382</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910382</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910382</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910382</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910382</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910382</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910382</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910382</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1256.740097465976</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="C5" t="n">
-        <v>1256.740097465976</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="D5" t="n">
-        <v>1256.740097465976</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="E5" t="n">
         <v>1256.740097465976</v>
       </c>
       <c r="F5" t="n">
-        <v>845.7541926763686</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G5" t="n">
         <v>429.7231473797759</v>
@@ -4564,55 +4564,55 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301904</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232724</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642786</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>1826.151173794702</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>1572.544009457211</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>1572.544009457211</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="W5" t="n">
-        <v>1572.544009457211</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="X5" t="n">
-        <v>1572.544009457211</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="Y5" t="n">
-        <v>1256.740097465976</v>
+        <v>1451.655119961722</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618.1386991004406</v>
+        <v>293.9554476571473</v>
       </c>
       <c r="C6" t="n">
-        <v>618.1386991004406</v>
+        <v>119.5024183760202</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1386991004406</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="E6" t="n">
-        <v>458.901244094985</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="F6" t="n">
-        <v>312.36668612187</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H6" t="n">
         <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562336</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104402</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333489</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1766.227047333489</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1571.516725807465</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U6" t="n">
-        <v>1343.415135940729</v>
+        <v>1367.172048607646</v>
       </c>
       <c r="V6" t="n">
-        <v>1108.263027708986</v>
+        <v>1132.019940375904</v>
       </c>
       <c r="W6" t="n">
-        <v>854.0256709807848</v>
+        <v>877.782583647702</v>
       </c>
       <c r="X6" t="n">
-        <v>646.1741707752519</v>
+        <v>669.9310834421692</v>
       </c>
       <c r="Y6" t="n">
-        <v>618.1386991004406</v>
+        <v>462.1707846772153</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>193.4094100343004</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="C7" t="n">
-        <v>193.4094100343004</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="D7" t="n">
-        <v>193.4094100343004</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="E7" t="n">
-        <v>193.4094100343004</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F7" t="n">
-        <v>193.4094100343004</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G7" t="n">
-        <v>193.4094100343004</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809311</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809311</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033668</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>414.2019891778305</v>
+        <v>388.3019303235343</v>
       </c>
       <c r="S7" t="n">
-        <v>414.2019891778305</v>
+        <v>189.1224447077607</v>
       </c>
       <c r="T7" t="n">
-        <v>414.2019891778305</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="U7" t="n">
-        <v>414.2019891778305</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="V7" t="n">
-        <v>414.2019891778305</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="W7" t="n">
-        <v>414.2019891778305</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="X7" t="n">
-        <v>414.2019891778305</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.4094100343004</v>
+        <v>61.70688273934482</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.487155015654</v>
+        <v>691.532553476995</v>
       </c>
       <c r="C8" t="n">
-        <v>1637.487155015654</v>
+        <v>322.5700365365832</v>
       </c>
       <c r="D8" t="n">
-        <v>1637.487155015654</v>
+        <v>66.85350767461067</v>
       </c>
       <c r="E8" t="n">
-        <v>1251.69890241741</v>
+        <v>66.85350767461067</v>
       </c>
       <c r="F8" t="n">
-        <v>840.7129976278027</v>
+        <v>59.9080069254072</v>
       </c>
       <c r="G8" t="n">
-        <v>424.8784808656983</v>
+        <v>48.1138942037069</v>
       </c>
       <c r="H8" t="n">
-        <v>119.4903658344938</v>
+        <v>48.1138942037069</v>
       </c>
       <c r="I8" t="n">
         <v>48.1138942037069</v>
       </c>
       <c r="J8" t="n">
-        <v>173.6006955371253</v>
+        <v>173.6006955371254</v>
       </c>
       <c r="K8" t="n">
-        <v>412.4113998844093</v>
+        <v>412.4113998844091</v>
       </c>
       <c r="L8" t="n">
-        <v>745.578957572141</v>
+        <v>745.5789575721412</v>
       </c>
       <c r="M8" t="n">
         <v>1147.961497459637</v>
       </c>
       <c r="N8" t="n">
-        <v>1561.46881589934</v>
+        <v>1561.468815899339</v>
       </c>
       <c r="O8" t="n">
         <v>1938.596789767451</v>
@@ -4831,25 +4831,25 @@
         <v>2405.694710185345</v>
       </c>
       <c r="S8" t="n">
-        <v>2278.038448903129</v>
+        <v>2405.694710185345</v>
       </c>
       <c r="T8" t="n">
-        <v>2068.724754714768</v>
+        <v>2405.694710185345</v>
       </c>
       <c r="U8" t="n">
-        <v>1815.133312660036</v>
+        <v>2152.103268130613</v>
       </c>
       <c r="V8" t="n">
-        <v>1815.133312660036</v>
+        <v>1821.040380787043</v>
       </c>
       <c r="W8" t="n">
-        <v>1637.487155015654</v>
+        <v>1468.271725516928</v>
       </c>
       <c r="X8" t="n">
-        <v>1637.487155015654</v>
+        <v>1468.271725516928</v>
       </c>
       <c r="Y8" t="n">
-        <v>1637.487155015654</v>
+        <v>1078.132393541117</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>322.1340345216261</v>
+        <v>677.2733461246557</v>
       </c>
       <c r="C9" t="n">
-        <v>322.1340345216261</v>
+        <v>502.8203168435287</v>
       </c>
       <c r="D9" t="n">
-        <v>322.1340345216261</v>
+        <v>353.8859071822774</v>
       </c>
       <c r="E9" t="n">
-        <v>322.1340345216261</v>
+        <v>194.6484521768219</v>
       </c>
       <c r="F9" t="n">
-        <v>175.5994765485111</v>
+        <v>48.1138942037069</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5994765485111</v>
+        <v>48.1138942037069</v>
       </c>
       <c r="H9" t="n">
-        <v>81.15965691399204</v>
+        <v>48.1138942037069</v>
       </c>
       <c r="I9" t="n">
         <v>48.1138942037069</v>
@@ -4886,49 +4886,49 @@
         <v>104.0351264502468</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7682440873324</v>
+        <v>277.7682440873323</v>
       </c>
       <c r="L9" t="n">
-        <v>557.6964019039181</v>
+        <v>557.6964019039178</v>
       </c>
       <c r="M9" t="n">
-        <v>903.716226889924</v>
+        <v>903.7162268899237</v>
       </c>
       <c r="N9" t="n">
-        <v>1273.302811944934</v>
+        <v>1273.302811944933</v>
       </c>
       <c r="O9" t="n">
-        <v>1589.182537471365</v>
+        <v>1589.182537471364</v>
       </c>
       <c r="P9" t="n">
-        <v>1823.370799411576</v>
+        <v>1823.370799411575</v>
       </c>
       <c r="Q9" t="n">
         <v>1930.000254186831</v>
       </c>
       <c r="R9" t="n">
-        <v>1904.54015593107</v>
+        <v>1930.000254186831</v>
       </c>
       <c r="S9" t="n">
-        <v>1767.528648385242</v>
+        <v>1930.000254186831</v>
       </c>
       <c r="T9" t="n">
-        <v>1573.242163355866</v>
+        <v>1750.489947075155</v>
       </c>
       <c r="U9" t="n">
-        <v>1345.147491386246</v>
+        <v>1750.489947075155</v>
       </c>
       <c r="V9" t="n">
-        <v>1109.995383154504</v>
+        <v>1515.337838843412</v>
       </c>
       <c r="W9" t="n">
-        <v>855.7580264263022</v>
+        <v>1261.100482115211</v>
       </c>
       <c r="X9" t="n">
-        <v>647.9065262207694</v>
+        <v>1053.248981909678</v>
       </c>
       <c r="Y9" t="n">
-        <v>440.1462274558154</v>
+        <v>845.4886831447238</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.0610107100484</v>
+        <v>597.345926710718</v>
       </c>
       <c r="C10" t="n">
-        <v>279.0610107100484</v>
+        <v>428.4097437828111</v>
       </c>
       <c r="D10" t="n">
-        <v>279.0610107100484</v>
+        <v>278.2931043704754</v>
       </c>
       <c r="E10" t="n">
-        <v>279.0610107100484</v>
+        <v>130.3800107880822</v>
       </c>
       <c r="F10" t="n">
-        <v>216.1585676738535</v>
+        <v>48.1138942037069</v>
       </c>
       <c r="G10" t="n">
         <v>48.1138942037069</v>
@@ -4965,49 +4965,49 @@
         <v>48.1138942037069</v>
       </c>
       <c r="K10" t="n">
-        <v>107.4998553139088</v>
+        <v>107.4998553139087</v>
       </c>
       <c r="L10" t="n">
-        <v>213.3992373663725</v>
+        <v>213.3992373663723</v>
       </c>
       <c r="M10" t="n">
-        <v>328.3135705658653</v>
+        <v>328.3135705658651</v>
       </c>
       <c r="N10" t="n">
-        <v>448.3530236739861</v>
+        <v>448.3530236739858</v>
       </c>
       <c r="O10" t="n">
-        <v>538.9157986502103</v>
+        <v>538.9157986502099</v>
       </c>
       <c r="P10" t="n">
-        <v>597.3459267107185</v>
+        <v>597.345926710718</v>
       </c>
       <c r="Q10" t="n">
-        <v>581.9048636376224</v>
+        <v>597.345926710718</v>
       </c>
       <c r="R10" t="n">
-        <v>476.704178806924</v>
+        <v>597.345926710718</v>
       </c>
       <c r="S10" t="n">
-        <v>279.0610107100484</v>
+        <v>597.345926710718</v>
       </c>
       <c r="T10" t="n">
-        <v>279.0610107100484</v>
+        <v>597.345926710718</v>
       </c>
       <c r="U10" t="n">
-        <v>279.0610107100484</v>
+        <v>597.345926710718</v>
       </c>
       <c r="V10" t="n">
-        <v>279.0610107100484</v>
+        <v>597.345926710718</v>
       </c>
       <c r="W10" t="n">
-        <v>279.0610107100484</v>
+        <v>597.345926710718</v>
       </c>
       <c r="X10" t="n">
-        <v>279.0610107100484</v>
+        <v>597.345926710718</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.0610107100484</v>
+        <v>597.345926710718</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C11" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5062,7 +5062,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y11" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
         <v>1212.42807043813</v>
@@ -5144,16 +5144,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199866</v>
@@ -5165,7 +5165,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>417.6040489720652</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="C13" t="n">
-        <v>417.6040489720652</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="D13" t="n">
-        <v>417.6040489720652</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="E13" t="n">
-        <v>417.6040489720652</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="F13" t="n">
-        <v>417.6040489720652</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
@@ -5208,43 +5208,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720652</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>417.6040489720652</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V13" t="n">
-        <v>417.6040489720652</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W13" t="n">
-        <v>417.6040489720652</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="X13" t="n">
-        <v>417.6040489720652</v>
+        <v>149.1100998399244</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.6040489720652</v>
+        <v>149.1100998399244</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1160.843385122603</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C14" t="n">
-        <v>791.8808681821918</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>791.8808681821918</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3139.598008152917</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3139.598008152917</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>3139.598008152917</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X14" t="n">
-        <v>1937.582557162537</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y14" t="n">
-        <v>1547.443225186725</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>417.6040489720648</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C16" t="n">
-        <v>417.6040489720648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D16" t="n">
-        <v>417.6040489720648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>417.6040489720648</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>417.6040489720648</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025388</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T16" t="n">
-        <v>417.6040489720648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U16" t="n">
-        <v>417.6040489720648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V16" t="n">
-        <v>417.6040489720648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W16" t="n">
-        <v>417.6040489720648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X16" t="n">
-        <v>417.6040489720648</v>
+        <v>844.171363847817</v>
       </c>
       <c r="Y16" t="n">
-        <v>417.6040489720648</v>
+        <v>844.171363847817</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1934.208022973022</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X17" t="n">
-        <v>1934.208022973022</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y17" t="n">
-        <v>1934.208022973022</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>385.5649387724261</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="C19" t="n">
-        <v>216.6287558445192</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438281</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V19" t="n">
-        <v>631.7841389438281</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W19" t="n">
-        <v>631.7841389438281</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="X19" t="n">
-        <v>631.7841389438281</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="Y19" t="n">
-        <v>567.2134036026658</v>
+        <v>87.68248070098156</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.62132134232</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C20" t="n">
         <v>1678.62132134232</v>
@@ -5749,55 +5749,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2791.455574937636</v>
+        <v>3163.957583789738</v>
       </c>
       <c r="V20" t="n">
-        <v>2791.455574937636</v>
+        <v>3163.957583789738</v>
       </c>
       <c r="W20" t="n">
-        <v>2438.686919667522</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X20" t="n">
-        <v>2065.221161406442</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y20" t="n">
-        <v>2065.221161406442</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C22" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D22" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181845</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181845</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V22" t="n">
-        <v>920.8870058181845</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W22" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X22" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y22" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1175.300932605788</v>
+        <v>1616.654488422264</v>
       </c>
       <c r="C23" t="n">
-        <v>806.3384156653767</v>
+        <v>1247.691971481853</v>
       </c>
       <c r="D23" t="n">
-        <v>448.0727170586262</v>
+        <v>889.4262728751021</v>
       </c>
       <c r="E23" t="n">
-        <v>448.0727170586262</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F23" t="n">
-        <v>448.0727170586262</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218339</v>
@@ -6016,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V23" t="n">
-        <v>2678.274518176916</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W23" t="n">
-        <v>2325.505862906802</v>
+        <v>2766.859418723277</v>
       </c>
       <c r="X23" t="n">
-        <v>1952.040104645722</v>
+        <v>2393.393660462198</v>
       </c>
       <c r="Y23" t="n">
-        <v>1561.90077266991</v>
+        <v>2003.254328486386</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3044.089480193524</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C25" t="n">
-        <v>2875.153297265617</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.153297265617</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.153297265617</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>2875.153297265617</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>2707.450460640336</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>2568.556609404823</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366697</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193524</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T25" t="n">
-        <v>3044.089480193524</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U25" t="n">
-        <v>3044.089480193524</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="V25" t="n">
-        <v>3044.089480193524</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W25" t="n">
-        <v>3044.089480193524</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X25" t="n">
-        <v>3044.089480193524</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y25" t="n">
-        <v>3044.089480193524</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1930.094988518961</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C26" t="n">
-        <v>1561.13247157855</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D26" t="n">
-        <v>1202.866772971799</v>
+        <v>936.9705155339541</v>
       </c>
       <c r="E26" t="n">
-        <v>817.078520373555</v>
+        <v>551.1822629357098</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>140.1963581461022</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>140.1963581461022</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V26" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W26" t="n">
-        <v>3080.299918819975</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2706.834160558895</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y26" t="n">
-        <v>2316.694828583083</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6311,19 +6311,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596504</v>
@@ -6411,25 +6411,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181845</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181845</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="U28" t="n">
-        <v>838.6033255730482</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="V28" t="n">
-        <v>583.9188373671614</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="W28" t="n">
-        <v>294.5016673302007</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="X28" t="n">
-        <v>66.51211643218342</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.51211643218342</v>
+        <v>826.5851666348717</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1832.276849100054</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C29" t="n">
-        <v>1832.276849100054</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>684.4181157012729</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>269.3456655462693</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2609.016021139988</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X29" t="n">
-        <v>2609.016021139988</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>2218.876689164176</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6548,19 +6548,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2471.230932223169</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>2471.230932223169</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>2471.230932223169</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>2471.230932223169</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>2471.230932223169</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K31" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M31" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O31" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W31" t="n">
-        <v>3101.661527094957</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X31" t="n">
-        <v>2873.671976196939</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y31" t="n">
-        <v>2652.879397053409</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1632.511388127729</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.548871187317</v>
+        <v>1402.455495256967</v>
       </c>
       <c r="D32" t="n">
-        <v>905.2831725805665</v>
+        <v>1044.189796650216</v>
       </c>
       <c r="E32" t="n">
-        <v>519.4949199823222</v>
+        <v>658.401544051972</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>658.401544051972</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>243.3290938969685</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3135.484973698856</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3135.484973698856</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>3135.484973698856</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W32" t="n">
-        <v>2782.716318428742</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>2409.250560167662</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y32" t="n">
-        <v>2019.11122819185</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6791,13 +6791,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>920.8870058181845</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C34" t="n">
-        <v>920.8870058181845</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D34" t="n">
-        <v>770.7703664058488</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E34" t="n">
-        <v>622.8572728234557</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F34" t="n">
-        <v>475.9673253255453</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G34" t="n">
-        <v>308.2644887002642</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H34" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K34" t="n">
         <v>176.6457242372932</v>
@@ -6888,22 +6888,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W34" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="X34" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="Y34" t="n">
-        <v>920.8870058181845</v>
+        <v>345.4862584440777</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2217.803762225665</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C35" t="n">
-        <v>1848.841245285254</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D35" t="n">
-        <v>1490.575546678503</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.787294080259</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>693.8013892906513</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265599</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W35" t="n">
-        <v>2994.542934265599</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X35" t="n">
-        <v>2994.542934265599</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y35" t="n">
-        <v>2604.403602289787</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7028,13 +7028,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596504</v>
@@ -7122,25 +7122,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181845</v>
+        <v>805.6854527976353</v>
       </c>
       <c r="T37" t="n">
-        <v>699.1203903877106</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="U37" t="n">
-        <v>699.1203903877106</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="V37" t="n">
-        <v>699.1203903877106</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W37" t="n">
-        <v>409.70322035075</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X37" t="n">
-        <v>181.7136694527326</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1137.43386558517</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C38" t="n">
-        <v>1137.43386558517</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1681669784198</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1681669784198</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7186,40 +7186,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3225.000815226033</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2971.470338499869</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2640.407451156298</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W38" t="n">
-        <v>2287.638795886184</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X38" t="n">
-        <v>1914.173037625104</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y38" t="n">
-        <v>1524.033705649292</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7274,31 +7274,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193525</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T40" t="n">
-        <v>2822.322864763051</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>2533.219997888694</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V40" t="n">
-        <v>2471.230932223169</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W40" t="n">
-        <v>2471.230932223169</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1878.169188758594</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C41" t="n">
-        <v>1878.169188758594</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D41" t="n">
-        <v>1519.903490151843</v>
+        <v>731.5828752918121</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>731.5828752918121</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>731.5828752918121</v>
       </c>
       <c r="G41" t="n">
         <v>406.0926155839475</v>
@@ -7414,7 +7414,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7423,7 +7423,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.5429342656</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.774278995485</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.308520734406</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.169188758594</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="42">
@@ -7502,13 +7502,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.5011820977084</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>128.5011820977084</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>128.5011820977084</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>128.5011820977084</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>128.5011820977084</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>128.5011820977084</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>128.5011820977084</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7593,28 +7593,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>417.6040489720648</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="U43" t="n">
-        <v>128.5011820977084</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="V43" t="n">
-        <v>128.5011820977084</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="W43" t="n">
-        <v>128.5011820977084</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X43" t="n">
-        <v>128.5011820977084</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.5011820977084</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1232.248790760447</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C44" t="n">
-        <v>863.2862738200351</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218339</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3319.815740401309</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3319.815740401309</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3066.285263675145</v>
+        <v>3117.865751137709</v>
       </c>
       <c r="V44" t="n">
-        <v>2735.222376331575</v>
+        <v>2786.802863794138</v>
       </c>
       <c r="W44" t="n">
-        <v>2382.45372106146</v>
+        <v>2786.802863794138</v>
       </c>
       <c r="X44" t="n">
-        <v>2008.98796280038</v>
+        <v>2413.337105533058</v>
       </c>
       <c r="Y44" t="n">
-        <v>1618.848630824569</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2933.064049212985</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>2933.064049212985</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>2933.064049212985</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>2785.150955630592</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>2785.150955630592</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>2617.448119005311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>3235.775364366697</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>3154.830664643459</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>2933.064049212985</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U46" t="n">
-        <v>2933.064049212985</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V46" t="n">
-        <v>2933.064049212985</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W46" t="n">
-        <v>2933.064049212985</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X46" t="n">
-        <v>2933.064049212985</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y46" t="n">
-        <v>2933.064049212985</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
   </sheetData>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>121.0536152320406</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.4732379112244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>59.55223036870413</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>62.98301134065726</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>19.77023481792816</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>236.682199950548</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>59.55223036870458</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>149.7611698383728</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>49.38648674473677</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>233.3414111029283</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>125.475302020459</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.6596253643442</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>35.29215968188009</v>
+        <v>90.96341651766309</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.772586778758807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>314.3517750074722</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>327.7844954205955</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>7.250102191163364</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>142.3823767705418</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>221.6603650905408</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>310.3060950957291</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24651,22 +24651,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>96.41020453996219</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>204.7509947629279</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>142.4887919071642</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>93.80255076437538</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>64.81814676751949</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>161.1358864701092</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>15.69833070840903</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>1.772586778758892</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>154.6987009335112</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>277.2566436803257</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>84.51310991089071</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
@@ -25213,13 +25213,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>75.71948784109817</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>104.5351158617511</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>104.3190138203135</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>174.0238667465115</v>
       </c>
     </row>
     <row r="39">
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="V40" t="n">
-        <v>190.7684683149585</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>97.05537564520961</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>88.68636854266748</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>34.98324540096844</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>104.5351158617512</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.4555813923939</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>45.33250219215472</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>109.6337726054358</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756794.247948124</v>
+        <v>756794.2479481241</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756794.247948124</v>
+        <v>756794.2479481241</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756794.2479481241</v>
+        <v>756794.247948124</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756794.247948124</v>
+        <v>756794.2479481238</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756794.2479481238</v>
+        <v>756794.2479481237</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756794.247948124</v>
+        <v>756794.2479481241</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756794.2479481241</v>
+        <v>756794.247948124</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756794.2479481238</v>
+        <v>756794.247948124</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>394849.1728424992</v>
@@ -26328,16 +26328,16 @@
         <v>394849.1728424993</v>
       </c>
       <c r="G2" t="n">
-        <v>394849.1728424993</v>
+        <v>394849.1728424992</v>
       </c>
       <c r="H2" t="n">
         <v>394849.1728424993</v>
       </c>
       <c r="I2" t="n">
-        <v>394849.1728424994</v>
+        <v>394849.1728424993</v>
       </c>
       <c r="J2" t="n">
-        <v>394849.1728424994</v>
+        <v>394849.1728424992</v>
       </c>
       <c r="K2" t="n">
         <v>394849.1728424993</v>
@@ -26346,16 +26346,16 @@
         <v>394849.1728424993</v>
       </c>
       <c r="M2" t="n">
+        <v>394849.1728424993</v>
+      </c>
+      <c r="N2" t="n">
         <v>394849.1728424992</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>394849.1728424993</v>
       </c>
-      <c r="O2" t="n">
-        <v>394849.1728424992</v>
-      </c>
       <c r="P2" t="n">
-        <v>394849.1728424992</v>
+        <v>394849.1728424993</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208452</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861787</v>
+        <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>59871.45719829528</v>
+        <v>59871.45719829588</v>
       </c>
       <c r="E3" t="n">
         <v>219439.6828815245</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854467</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487797</v>
+        <v>91259.95686487772</v>
       </c>
       <c r="L3" t="n">
-        <v>15010.50346109823</v>
+        <v>15010.50346109841</v>
       </c>
       <c r="M3" t="n">
-        <v>57311.38215281574</v>
+        <v>57311.38215281586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
         <v>157675.7383646807</v>
@@ -26429,13 +26429,13 @@
         <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.646989006123</v>
@@ -26459,7 +26459,7 @@
         <v>584.646989006123</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.0818558723</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
         <v>89860.11994103155</v>
@@ -26484,34 +26484,34 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>74306.34056139327</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-434254.2058480186</v>
+        <v>-434254.2058480191</v>
       </c>
       <c r="C6" t="n">
-        <v>-159287.2543123788</v>
+        <v>-159287.2543123771</v>
       </c>
       <c r="D6" t="n">
-        <v>185217.7464145626</v>
+        <v>185217.7464145619</v>
       </c>
       <c r="E6" t="n">
-        <v>100518.5024105753</v>
+        <v>96444.5070324057</v>
       </c>
       <c r="F6" t="n">
-        <v>319958.1852921</v>
+        <v>315884.1899139302</v>
       </c>
       <c r="G6" t="n">
-        <v>319958.1852920998</v>
+        <v>315884.18991393</v>
       </c>
       <c r="H6" t="n">
-        <v>319958.1852921</v>
+        <v>315884.1899139304</v>
       </c>
       <c r="I6" t="n">
-        <v>319958.1852921</v>
+        <v>315884.1899139305</v>
       </c>
       <c r="J6" t="n">
-        <v>270893.2405635553</v>
+        <v>266819.2451853854</v>
       </c>
       <c r="K6" t="n">
-        <v>228698.2284272219</v>
+        <v>224624.2330490525</v>
       </c>
       <c r="L6" t="n">
-        <v>304947.6818310016</v>
+        <v>300873.6864528318</v>
       </c>
       <c r="M6" t="n">
-        <v>262646.803139284</v>
+        <v>258572.8077611144</v>
       </c>
       <c r="N6" t="n">
-        <v>319958.1852920998</v>
+        <v>315884.1899139301</v>
       </c>
       <c r="O6" t="n">
-        <v>319958.1852920998</v>
+        <v>315884.1899139302</v>
       </c>
       <c r="P6" t="n">
-        <v>319958.1852920997</v>
+        <v>315884.1899139302</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>902.1082727621243</v>
+        <v>902.1082727621241</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261639</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
         <v>601.4236775463362</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247805</v>
+        <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>48.39760822443952</v>
+        <v>48.39760822443998</v>
       </c>
       <c r="E3" t="n">
         <v>187.668427831174</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598442</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="D4" t="n">
-        <v>59.30872082017231</v>
+        <v>59.30872082017301</v>
       </c>
       <c r="E4" t="n">
-        <v>229.9777778559566</v>
+        <v>229.9777778559567</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598442</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017231</v>
+        <v>59.30872082017301</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559563</v>
+        <v>229.9777778559568</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598442</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017231</v>
+        <v>59.30872082017301</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559566</v>
+        <v>229.9777778559567</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046878</v>
+        <v>206.3519085607336</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>293.8395519128313</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753917</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637383</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988665</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409151</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846323</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>154.0968142474589</v>
       </c>
       <c r="U3" t="n">
-        <v>55.07804875020258</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459988</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098464</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.8279528886256</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>107.3094116625251</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825421</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159729</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>188.9644978014731</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.59206578473112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>108.3726435241397</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.9275788192411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27791,13 +27791,13 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923916</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3.046366981496561</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>95.22641238557094</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>101.5236780473301</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.3342338808924</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.66270691447909</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>126.3796986693934</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>173.3712726494754</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.70111264501986</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27949,10 +27949,10 @@
         <v>135.4031333312317</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.49542143817385</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>32.7153050831823</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.20549727320325</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>135.64139247037</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>14.62841613852288</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8137252499236</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>83.14762941709826</v>
+        <v>63.97759260439966</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
         <v>147.7638628228272</v>
@@ -28034,7 +28034,7 @@
         <v>106.5295869551746</v>
       </c>
       <c r="J10" t="n">
-        <v>11.98401099232989</v>
+        <v>11.98401099232991</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.2866524423651</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>104.1486779823914</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.6667364159068</v>
       </c>
       <c r="T10" t="n">
         <v>220.9949191299504</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190908</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452749</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
         <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.626565920651753</v>
+        <v>3.626565920651752</v>
       </c>
       <c r="H8" t="n">
-        <v>37.14056823487478</v>
+        <v>37.14056823487477</v>
       </c>
       <c r="I8" t="n">
-        <v>139.8131826559269</v>
+        <v>139.8131826559268</v>
       </c>
       <c r="J8" t="n">
-        <v>307.8002493079171</v>
+        <v>307.8002493079169</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3127847291058</v>
+        <v>461.3127847291057</v>
       </c>
       <c r="L8" t="n">
-        <v>572.2993015232521</v>
+        <v>572.2993015232519</v>
       </c>
       <c r="M8" t="n">
-        <v>636.7932432146426</v>
+        <v>636.7932432146425</v>
       </c>
       <c r="N8" t="n">
-        <v>647.0972236366945</v>
+        <v>647.0972236366944</v>
       </c>
       <c r="O8" t="n">
-        <v>611.0355587632135</v>
+        <v>611.0355587632134</v>
       </c>
       <c r="P8" t="n">
-        <v>521.5047125971233</v>
+        <v>521.5047125971232</v>
       </c>
       <c r="Q8" t="n">
-        <v>391.6283205637823</v>
+        <v>391.6283205637822</v>
       </c>
       <c r="R8" t="n">
-        <v>227.8072715131409</v>
+        <v>227.8072715131408</v>
       </c>
       <c r="S8" t="n">
-        <v>82.64037091685191</v>
+        <v>82.64037091685189</v>
       </c>
       <c r="T8" t="n">
-        <v>15.87529231765306</v>
+        <v>15.87529231765305</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2901252736521402</v>
+        <v>0.2901252736521401</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,43 +31600,43 @@
         <v>18.74002279832262</v>
       </c>
       <c r="I9" t="n">
-        <v>66.80707491681771</v>
+        <v>66.8070749168177</v>
       </c>
       <c r="J9" t="n">
-        <v>183.3237198449899</v>
+        <v>183.3237198449898</v>
       </c>
       <c r="K9" t="n">
         <v>313.3294365875767</v>
       </c>
       <c r="L9" t="n">
-        <v>421.3100947461224</v>
+        <v>421.3100947461223</v>
       </c>
       <c r="M9" t="n">
-        <v>491.6490086553577</v>
+        <v>491.6490086553576</v>
       </c>
       <c r="N9" t="n">
-        <v>504.6614949671813</v>
+        <v>504.6614949671811</v>
       </c>
       <c r="O9" t="n">
-        <v>461.6666742691223</v>
+        <v>461.6666742691222</v>
       </c>
       <c r="P9" t="n">
-        <v>370.5282073539375</v>
+        <v>370.5282073539374</v>
       </c>
       <c r="Q9" t="n">
-        <v>247.6882940610271</v>
+        <v>247.688294061027</v>
       </c>
       <c r="R9" t="n">
         <v>120.4740066907607</v>
       </c>
       <c r="S9" t="n">
-        <v>36.04177863346787</v>
+        <v>36.04177863346786</v>
       </c>
       <c r="T9" t="n">
-        <v>7.821108515739547</v>
+        <v>7.821108515739545</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1276568310512441</v>
+        <v>0.127656831051244</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,10 +31673,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.626752623013667</v>
+        <v>1.626752623013666</v>
       </c>
       <c r="H10" t="n">
-        <v>14.46330968461243</v>
+        <v>14.46330968461242</v>
       </c>
       <c r="I10" t="n">
         <v>48.92088797208373</v>
@@ -31685,37 +31685,37 @@
         <v>115.0114104470662</v>
       </c>
       <c r="K10" t="n">
-        <v>188.9990774737696</v>
+        <v>188.9990774737695</v>
       </c>
       <c r="L10" t="n">
         <v>241.8537490615046</v>
       </c>
       <c r="M10" t="n">
-        <v>255.0008679874968</v>
+        <v>255.0008679874967</v>
       </c>
       <c r="N10" t="n">
-        <v>248.9375173017188</v>
+        <v>248.9375173017187</v>
       </c>
       <c r="O10" t="n">
-        <v>229.9340889328773</v>
+        <v>229.9340889328772</v>
       </c>
       <c r="P10" t="n">
-        <v>196.7483354233983</v>
+        <v>196.7483354233982</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.2183491870808</v>
+        <v>136.2183491870807</v>
       </c>
       <c r="R10" t="n">
-        <v>73.14471339477812</v>
+        <v>73.14471339477811</v>
       </c>
       <c r="S10" t="n">
-        <v>28.34986162106544</v>
+        <v>28.34986162106543</v>
       </c>
       <c r="T10" t="n">
-        <v>6.950670298331119</v>
+        <v>6.950670298331118</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08873196125529101</v>
+        <v>0.08873196125529099</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33031,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33511,7 +33511,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33745,7 +33745,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33912,7 +33912,7 @@
         <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
         <v>473.0999946781689</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646072</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061146</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520818</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400467</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808909</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662056</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.65087734093964</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818059</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510198</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>294.3022689440064</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767808</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>126.7543447812308</v>
+        <v>126.7543447812307</v>
       </c>
       <c r="K8" t="n">
-        <v>241.2229336841253</v>
+        <v>241.2229336841252</v>
       </c>
       <c r="L8" t="n">
-        <v>336.5328865532649</v>
+        <v>336.5328865532646</v>
       </c>
       <c r="M8" t="n">
-        <v>406.4470099873699</v>
+        <v>406.4470099873698</v>
       </c>
       <c r="N8" t="n">
-        <v>417.6841600401036</v>
+        <v>417.6841600401034</v>
       </c>
       <c r="O8" t="n">
-        <v>380.9373473415268</v>
+        <v>380.9373473415267</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2717168418538</v>
+        <v>290.2717168418537</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.3226306893328</v>
+        <v>169.3226306893327</v>
       </c>
       <c r="R8" t="n">
-        <v>12.22173369900878</v>
+        <v>12.22173369900872</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.48609317832316</v>
+        <v>56.4860931783231</v>
       </c>
       <c r="K9" t="n">
         <v>175.4879976132177</v>
       </c>
       <c r="L9" t="n">
-        <v>282.7557149662482</v>
+        <v>282.7557149662481</v>
       </c>
       <c r="M9" t="n">
-        <v>349.5149747333394</v>
+        <v>349.5149747333393</v>
       </c>
       <c r="N9" t="n">
-        <v>373.319782883848</v>
+        <v>373.3197828838478</v>
       </c>
       <c r="O9" t="n">
-        <v>319.0704298246778</v>
+        <v>319.0704298246777</v>
       </c>
       <c r="P9" t="n">
-        <v>236.5537999396072</v>
+        <v>236.5537999396071</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.7065199750056</v>
+        <v>107.7065199750055</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>59.98581930323422</v>
+        <v>59.98581930323417</v>
       </c>
       <c r="L10" t="n">
         <v>106.9690727802663</v>
       </c>
       <c r="M10" t="n">
-        <v>116.0750840398918</v>
+        <v>116.0750840398917</v>
       </c>
       <c r="N10" t="n">
-        <v>121.2519728364856</v>
+        <v>121.2519728364855</v>
       </c>
       <c r="O10" t="n">
-        <v>91.47755048103448</v>
+        <v>91.4775504810344</v>
       </c>
       <c r="P10" t="n">
-        <v>59.02033137425067</v>
+        <v>59.02033137425062</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
